--- a/HONDURAS/Delitos/Acceso a la Justicia.xlsx
+++ b/HONDURAS/Delitos/Acceso a la Justicia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F553D-DF1D-463D-81F0-1556BCE1BC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD11776-2A0D-4B7C-BCD7-7B54AE2CDDCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15075" yWindow="135" windowWidth="13650" windowHeight="11385" xr2:uid="{7C697801-5599-41EC-92B5-AC8E80739909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C697801-5599-41EC-92B5-AC8E80739909}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -231,7 +231,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B76AE9AD-337A-4BB5-BEE2-364B2F5381D3}" name="Legal_femicidios_ingresos_resoluciones" displayName="Legal_femicidios_ingresos_resoluciones" ref="A4:D7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B76AE9AD-337A-4BB5-BEE2-364B2F5381D3}" name="Legal_femicidios_ingresos_resoluciones" displayName="Legal_femicidios_ingresos_resoluciones" ref="A4:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A4:D7" xr:uid="{3B2E2E28-FC8C-461A-84EA-7E529C7E846A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DCDFE40D-6E88-4FCC-A2FE-320068E6AACC}" name="Año" dataDxfId="3"/>
@@ -574,7 +574,7 @@
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
